--- a/finalProject/src/test/java/com/finalProject/testData/LoginData.xlsx
+++ b/finalProject/src/test/java/com/finalProject/testData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="4040" windowWidth="12880" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="3640" windowWidth="12880" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>tytUreg</t>
   </si>
@@ -31,37 +31,40 @@
     <t>jahetAp</t>
   </si>
   <si>
+    <t>mngr164225@gmail.com</t>
+  </si>
+  <si>
+    <t>mngr425559@gmail.com</t>
+  </si>
+  <si>
+    <t>mngr137319@gmail.com</t>
+  </si>
+  <si>
+    <t>mngr112909@gmail.com</t>
+  </si>
+  <si>
+    <t>eaWLaLubwj</t>
+  </si>
+  <si>
+    <t>ileJiv@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Pass or fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>napasAn</t>
   </si>
   <si>
-    <t>mngr164225@gmail.com</t>
-  </si>
-  <si>
-    <t>mngr425559@gmail.com</t>
-  </si>
-  <si>
-    <t>mngr137319@gmail.com</t>
-  </si>
-  <si>
-    <t>mngr112909@gmail.com</t>
-  </si>
-  <si>
-    <t>eaWLaLubwj</t>
-  </si>
-  <si>
-    <t>ileJiv@gmail.com</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Pass or fail</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,19 +118,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
@@ -173,8 +163,68 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,65 +247,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
     <border>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="6" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -574,7 +595,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,70 +605,70 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="23.5" r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row ht="23.5" r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row ht="23.5" r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row ht="23.5" r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row ht="23.5" r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row ht="23.5" r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+    <row ht="23.5" r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="23.5" r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row ht="23.5" r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row ht="23.5" r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row ht="23.5" r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row ht="23.5" r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s" s="6">
-        <v>13</v>
+      <c r="C6" t="s" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
